--- a/TimeHistory/timeh_history PGA PGV.xlsx
+++ b/TimeHistory/timeh_history PGA PGV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -1675,12 +1675,19 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2590,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/TimeHistory/timeh_history PGA PGV.xlsx
+++ b/TimeHistory/timeh_history PGA PGV.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="42" sheetId="1" r:id="rId1"/>
+    <sheet name="21" sheetId="3" r:id="rId2"/>
+    <sheet name="10" sheetId="2" r:id="rId3"/>
+    <sheet name="7" sheetId="5" r:id="rId4"/>
+    <sheet name="3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'42'!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'7'!$A$1:$G$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>RSN960_NORTHR_LOS270</t>
   </si>
@@ -243,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +253,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,11 +541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,7 +551,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -568,7 +574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -593,8 +599,16 @@
         <f>B2*F2</f>
         <v>0.42975134749159261</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>AVERAGE(D2:D43)</f>
+        <v>0.95964285714285702</v>
+      </c>
+      <c r="I2" s="1">
+        <f>MEDIAN(D2:D43)</f>
+        <v>1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -620,7 +634,7 @@
         <v>0.47754267572356768</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -646,7 +660,7 @@
         <v>0.64810397145109022</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -672,7 +686,7 @@
         <v>0.42812842157023445</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -698,7 +712,7 @@
         <v>0.37188544715138155</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -724,7 +738,7 @@
         <v>0.43997256079073438</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -750,7 +764,7 @@
         <v>0.42266676388888891</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -776,7 +790,7 @@
         <v>0.35242401372597393</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -802,7 +816,7 @@
         <v>0.30806723764725469</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -828,7 +842,7 @@
         <v>0.25706244464127548</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,7 +868,7 @@
         <v>0.47860740497715559</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -880,7 +894,7 @@
         <v>0.40887221130305851</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,7 +920,7 @@
         <v>0.5574319335911806</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -932,7 +946,7 @@
         <v>0.61492481164904222</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1674,9 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2291,9 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2595,11 +2605,351 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21.707000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>29.001000000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2/C2</f>
+        <v>1.3360206385037086</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2*F2</f>
+        <v>0.30060464366333445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>29.001000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3/C3</f>
+        <v>0.95069660711358805</v>
+      </c>
+      <c r="G3" s="1">
+        <f>B3*F3</f>
+        <v>0.29946943124078024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>46.801000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>29.001000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4/C4</f>
+        <v>0.6196662464477255</v>
+      </c>
+      <c r="G4" s="1">
+        <f>B4*F4</f>
+        <v>0.29929879703425138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27.600999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.028</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>29.001000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5/C5</f>
+        <v>1.0507227998985544</v>
+      </c>
+      <c r="G5" s="1">
+        <f>B5*F5</f>
+        <v>0.29840527517118942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26.001000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>29.001000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <f>E6/C6</f>
+        <v>1.1153801776854737</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B6*F6</f>
+        <v>0.29557574708665052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>29.001000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <f>E7/C7</f>
+        <v>0.80558333333333332</v>
+      </c>
+      <c r="G7" s="1">
+        <f>B7*F7</f>
+        <v>0.29564908333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29.001000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>29.001000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <f>E8/C8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f>B8*F8</f>
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G43">
+    <sortCondition descending="1" ref="D2:D43"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H2:H43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TimeHistory/timeh_history PGA PGV.xlsx
+++ b/TimeHistory/timeh_history PGA PGV.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\TimeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2567B7-29C8-4F2B-9F49-7C9954B024C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="1" r:id="rId1"/>
     <sheet name="21" sheetId="3" r:id="rId2"/>
     <sheet name="10" sheetId="2" r:id="rId3"/>
     <sheet name="7" sheetId="5" r:id="rId4"/>
-    <sheet name="3" sheetId="4" r:id="rId5"/>
+    <sheet name="7 Less NPTS" sheetId="6" r:id="rId5"/>
+    <sheet name="3" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'42'!$A$1:$D$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'7'!$A$1:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
   <si>
     <t>RSN960_NORTHR_LOS270</t>
   </si>
@@ -190,13 +192,17 @@
   </si>
   <si>
     <t>NPGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
@@ -540,10 +546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -551,7 +559,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -573,8 +581,11 @@
       <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -600,15 +611,10 @@
         <v>0.42975134749159261</v>
       </c>
       <c r="H2" s="1">
-        <f>AVERAGE(D2:D43)</f>
-        <v>0.95964285714285702</v>
-      </c>
-      <c r="I2" s="1">
-        <f>MEDIAN(D2:D43)</f>
-        <v>1.0029999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -633,8 +639,11 @@
         <f t="shared" ref="G3:G43" si="2">B3*F3</f>
         <v>0.47754267572356768</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -659,8 +668,11 @@
         <f t="shared" si="2"/>
         <v>0.64810397145109022</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -685,8 +697,11 @@
         <f t="shared" si="2"/>
         <v>0.42812842157023445</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -711,8 +726,11 @@
         <f t="shared" si="2"/>
         <v>0.37188544715138155</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -737,8 +755,11 @@
         <f t="shared" si="2"/>
         <v>0.43997256079073438</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -763,8 +784,11 @@
         <f t="shared" si="2"/>
         <v>0.42266676388888891</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -789,8 +813,11 @@
         <f t="shared" si="2"/>
         <v>0.35242401372597393</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -815,8 +842,11 @@
         <f t="shared" si="2"/>
         <v>0.30806723764725469</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -841,8 +871,11 @@
         <f t="shared" si="2"/>
         <v>0.25706244464127548</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,8 +900,11 @@
         <f t="shared" si="2"/>
         <v>0.47860740497715559</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -893,8 +929,11 @@
         <f t="shared" si="2"/>
         <v>0.40887221130305851</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,8 +958,11 @@
         <f t="shared" si="2"/>
         <v>0.5574319335911806</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -945,8 +987,11 @@
         <f t="shared" si="2"/>
         <v>0.61492481164904222</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -971,8 +1016,11 @@
         <f t="shared" si="2"/>
         <v>0.63869759142392613</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -997,8 +1045,11 @@
         <f t="shared" si="2"/>
         <v>0.33603788212492292</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1023,8 +1074,11 @@
         <f t="shared" si="2"/>
         <v>0.42660707945364301</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1049,8 +1103,11 @@
         <f t="shared" si="2"/>
         <v>0.3983922506164021</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1075,8 +1132,11 @@
         <f t="shared" si="2"/>
         <v>0.19878710933677765</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1101,8 +1161,11 @@
         <f t="shared" si="2"/>
         <v>0.2167496474634566</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1127,8 +1190,11 @@
         <f t="shared" si="2"/>
         <v>0.30991312747827554</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1153,8 +1219,11 @@
         <f t="shared" si="2"/>
         <v>0.30341652295187682</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1179,8 +1248,11 @@
         <f t="shared" si="2"/>
         <v>0.37758486057573099</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,8 +1277,11 @@
         <f t="shared" si="2"/>
         <v>0.47605896805896808</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1231,8 +1306,11 @@
         <f t="shared" si="2"/>
         <v>0.42788447896412468</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,8 +1335,11 @@
         <f t="shared" si="2"/>
         <v>0.50303773239547112</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1283,8 +1364,11 @@
         <f t="shared" si="2"/>
         <v>0.29793403276803682</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1309,8 +1393,11 @@
         <f t="shared" si="2"/>
         <v>0.44309221631043028</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1335,8 +1422,11 @@
         <f t="shared" si="2"/>
         <v>0.62431557435823892</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1361,8 +1451,11 @@
         <f t="shared" si="2"/>
         <v>0.13873313189831696</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1387,8 +1480,11 @@
         <f t="shared" si="2"/>
         <v>0.21985614494280808</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1413,8 +1509,11 @@
         <f t="shared" si="2"/>
         <v>0.27127104416443476</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1439,8 +1538,11 @@
         <f t="shared" si="2"/>
         <v>0.21698046700632634</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1465,8 +1567,11 @@
         <f t="shared" si="2"/>
         <v>0.15117152515665655</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1491,8 +1596,11 @@
         <f t="shared" si="2"/>
         <v>0.39176188621199409</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1517,8 +1625,11 @@
         <f t="shared" si="2"/>
         <v>0.45348679697106986</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1543,8 +1654,11 @@
         <f t="shared" si="2"/>
         <v>0.54805046864379503</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1569,8 +1683,11 @@
         <f t="shared" si="2"/>
         <v>0.50748170815046545</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1595,8 +1712,11 @@
         <f t="shared" si="2"/>
         <v>0.50316140776699037</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1621,8 +1741,11 @@
         <f t="shared" si="2"/>
         <v>0.40751247898744197</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1647,8 +1770,11 @@
         <f t="shared" si="2"/>
         <v>0.42256192069535792</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1673,9 +1799,12 @@
         <f t="shared" si="2"/>
         <v>0.30386209053939317</v>
       </c>
+      <c r="H43" s="1">
+        <v>4531</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition descending="1" ref="D2:D43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1685,7 +1814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2300,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2604,7 +2733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2654,15 +2783,15 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="E2" s="1">
-        <f>MEDIAN(C$2:C$43)</f>
+        <f t="shared" ref="E2:E8" si="0">MEDIAN(C$2:C$43)</f>
         <v>29.001000000000001</v>
       </c>
       <c r="F2" s="2">
-        <f>E2/C2</f>
+        <f t="shared" ref="F2:F8" si="1">E2/C2</f>
         <v>1.3360206385037086</v>
       </c>
       <c r="G2" s="1">
-        <f>B2*F2</f>
+        <f t="shared" ref="G2:G8" si="2">B2*F2</f>
         <v>0.30060464366333445</v>
       </c>
     </row>
@@ -2680,15 +2809,15 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="E3" s="1">
-        <f>MEDIAN(C$2:C$43)</f>
+        <f t="shared" si="0"/>
         <v>29.001000000000001</v>
       </c>
       <c r="F3" s="2">
-        <f>E3/C3</f>
+        <f t="shared" si="1"/>
         <v>0.95069660711358805</v>
       </c>
       <c r="G3" s="1">
-        <f>B3*F3</f>
+        <f t="shared" si="2"/>
         <v>0.29946943124078024</v>
       </c>
     </row>
@@ -2706,15 +2835,15 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="E4" s="1">
-        <f>MEDIAN(C$2:C$43)</f>
+        <f t="shared" si="0"/>
         <v>29.001000000000001</v>
       </c>
       <c r="F4" s="2">
-        <f>E4/C4</f>
+        <f t="shared" si="1"/>
         <v>0.6196662464477255</v>
       </c>
       <c r="G4" s="1">
-        <f>B4*F4</f>
+        <f t="shared" si="2"/>
         <v>0.29929879703425138</v>
       </c>
     </row>
@@ -2732,15 +2861,15 @@
         <v>1.028</v>
       </c>
       <c r="E5" s="1">
-        <f>MEDIAN(C$2:C$43)</f>
+        <f t="shared" si="0"/>
         <v>29.001000000000001</v>
       </c>
       <c r="F5" s="2">
-        <f>E5/C5</f>
+        <f t="shared" si="1"/>
         <v>1.0507227998985544</v>
       </c>
       <c r="G5" s="1">
-        <f>B5*F5</f>
+        <f t="shared" si="2"/>
         <v>0.29840527517118942</v>
       </c>
     </row>
@@ -2758,15 +2887,15 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="E6" s="1">
-        <f>MEDIAN(C$2:C$43)</f>
+        <f t="shared" si="0"/>
         <v>29.001000000000001</v>
       </c>
       <c r="F6" s="2">
-        <f>E6/C6</f>
+        <f t="shared" si="1"/>
         <v>1.1153801776854737</v>
       </c>
       <c r="G6" s="1">
-        <f>B6*F6</f>
+        <f t="shared" si="2"/>
         <v>0.29557574708665052</v>
       </c>
     </row>
@@ -2784,15 +2913,15 @@
         <v>1.0189999999999999</v>
       </c>
       <c r="E7" s="1">
-        <f>MEDIAN(C$2:C$43)</f>
+        <f t="shared" si="0"/>
         <v>29.001000000000001</v>
       </c>
       <c r="F7" s="2">
-        <f>E7/C7</f>
+        <f t="shared" si="1"/>
         <v>0.80558333333333332</v>
       </c>
       <c r="G7" s="1">
-        <f>B7*F7</f>
+        <f t="shared" si="2"/>
         <v>0.29564908333333334</v>
       </c>
     </row>
@@ -2810,15 +2939,15 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="E8" s="1">
-        <f>MEDIAN(C$2:C$43)</f>
+        <f t="shared" si="0"/>
         <v>29.001000000000001</v>
       </c>
       <c r="F8" s="2">
-        <f>E8/C8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f>B8*F8</f>
+        <f t="shared" si="2"/>
         <v>0.28599999999999998</v>
       </c>
     </row>
@@ -2925,7 +3054,7 @@
       <c r="F43" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G43">
     <sortCondition descending="1" ref="D2:D43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2946,7 +3075,255 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22027840-1A79-4E35-A6A0-23E190F5789C}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29.001000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <f>MEDIAN(C$2:C$41)</f>
+        <v>29.074999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F8" si="0">E2/C2</f>
+        <v>1.0025516361504776</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G8" si="1">B2*F2</f>
+        <v>0.28672976793903659</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="C3" s="1">
+        <v>29.074999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MEDIAN(C$2:C$41)</f>
+        <v>29.074999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.152</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44.360999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E4" s="1">
+        <f>MEDIAN(C$2:C$41)</f>
+        <v>29.074999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65541804738396336</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26478889114312121</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>46.801000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MEDIAN(C$2:C$41)</f>
+        <v>29.074999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62124740924339217</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30006249866455842</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21.802</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="E6" s="1">
+        <f>MEDIAN(C$2:C$41)</f>
+        <v>29.074999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3335932483258417</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31072722685992116</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50.564999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <f>MEDIAN(C$2:C$41)</f>
+        <v>29.074999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57500247206565802</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28577622861663204</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26.001000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <f>MEDIAN(C$2:C$41)</f>
+        <v>29.074999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1182262220683818</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29632994884812119</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TimeHistory/timeh_history PGA PGV.xlsx
+++ b/TimeHistory/timeh_history PGA PGV.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\TimeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2567B7-29C8-4F2B-9F49-7C9954B024C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="1" r:id="rId1"/>
     <sheet name="21" sheetId="3" r:id="rId2"/>
-    <sheet name="10" sheetId="2" r:id="rId3"/>
-    <sheet name="7" sheetId="5" r:id="rId4"/>
-    <sheet name="7 Less NPTS" sheetId="6" r:id="rId5"/>
-    <sheet name="3" sheetId="4" r:id="rId6"/>
+    <sheet name="11" sheetId="7" r:id="rId3"/>
+    <sheet name="10" sheetId="2" r:id="rId4"/>
+    <sheet name="7" sheetId="5" r:id="rId5"/>
+    <sheet name="7 Less NPTS" sheetId="6" r:id="rId6"/>
+    <sheet name="3" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'42'!$A$1:$D$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'7'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'7'!$A$1:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t>RSN960_NORTHR_LOS270</t>
   </si>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
@@ -546,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
         <v>0.40751247898744197</v>
       </c>
       <c r="H41" s="1">
-        <v>2676</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+  <sortState ref="A2:D43">
     <sortCondition descending="1" ref="D2:D43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,7 +1814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2429,7 +2429,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29.001000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E12" si="0">MEDIAN(C$2:C$43)</f>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F12" si="1">E2/C2</f>
+        <v>1.6137719388986587</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G12" si="2">B2*F2</f>
+        <v>0.46153877452501635</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="C3" s="1">
+        <v>51.098999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91588876494647653</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22439274741188675</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>66.683000000000007</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70184304845312895</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34249940764512693</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44.360999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0550032686368658</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42622132052929379</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>46.801000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>31.311</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4947143176519435</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33631072147168728</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40.045999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1686810168306447</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15660325625530641</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="C9" s="1">
+        <v>58.837000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.79543484542039866</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24817567177116437</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="C10" s="1">
+        <v>65.849000000000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.224</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.71073212956916576</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57285009643274765</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50.564999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92556115890438062</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46000389597547714</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44.753999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0457389283639451</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34300236850337401</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2732,8 +3141,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3054,7 +3463,7 @@
       <c r="F43" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G43">
+  <sortState ref="A2:G43">
     <sortCondition descending="1" ref="D2:D43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3074,11 +3483,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22027840-1A79-4E35-A6A0-23E190F5789C}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3127,15 +3536,15 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="E2" s="1">
-        <f>MEDIAN(C$2:C$41)</f>
+        <f t="shared" ref="E2:E8" si="0">MEDIAN(C$2:C$41)</f>
         <v>29.074999999999999</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F8" si="0">E2/C2</f>
+        <f t="shared" ref="F2:F8" si="1">E2/C2</f>
         <v>1.0025516361504776</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G8" si="1">B2*F2</f>
+        <f t="shared" ref="G2:G8" si="2">B2*F2</f>
         <v>0.28672976793903659</v>
       </c>
       <c r="H2" s="1">
@@ -3156,15 +3565,15 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="E3" s="1">
-        <f>MEDIAN(C$2:C$41)</f>
+        <f t="shared" si="0"/>
         <v>29.074999999999999</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.152</v>
       </c>
       <c r="H3" s="1">
@@ -3185,15 +3594,15 @@
         <v>0.91</v>
       </c>
       <c r="E4" s="1">
-        <f>MEDIAN(C$2:C$41)</f>
+        <f t="shared" si="0"/>
         <v>29.074999999999999</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65541804738396336</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26478889114312121</v>
       </c>
       <c r="H4" s="1">
@@ -3214,15 +3623,15 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="E5" s="1">
-        <f>MEDIAN(C$2:C$41)</f>
+        <f t="shared" si="0"/>
         <v>29.074999999999999</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62124740924339217</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30006249866455842</v>
       </c>
       <c r="H5" s="1">
@@ -3243,15 +3652,15 @@
         <v>1.07</v>
       </c>
       <c r="E6" s="1">
-        <f>MEDIAN(C$2:C$41)</f>
+        <f t="shared" si="0"/>
         <v>29.074999999999999</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3335932483258417</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31072722685992116</v>
       </c>
       <c r="H6" s="1">
@@ -3272,15 +3681,15 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="E7" s="1">
-        <f>MEDIAN(C$2:C$41)</f>
+        <f t="shared" si="0"/>
         <v>29.074999999999999</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57500247206565802</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28577622861663204</v>
       </c>
       <c r="H7" s="1">
@@ -3301,15 +3710,15 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="E8" s="1">
-        <f>MEDIAN(C$2:C$41)</f>
+        <f t="shared" si="0"/>
         <v>29.074999999999999</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1182262220683818</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29632994884812119</v>
       </c>
       <c r="H8" s="1">
@@ -3322,8 +3731,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TimeHistory/timeh_history PGA PGV.xlsx
+++ b/TimeHistory/timeh_history PGA PGV.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\thesis\TimeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="1" r:id="rId1"/>
     <sheet name="21" sheetId="3" r:id="rId2"/>
     <sheet name="11" sheetId="7" r:id="rId3"/>
-    <sheet name="10" sheetId="2" r:id="rId4"/>
-    <sheet name="7" sheetId="5" r:id="rId5"/>
-    <sheet name="7 Less NPTS" sheetId="6" r:id="rId6"/>
-    <sheet name="3" sheetId="4" r:id="rId7"/>
+    <sheet name="Word 11" sheetId="8" r:id="rId4"/>
+    <sheet name="10" sheetId="2" r:id="rId5"/>
+    <sheet name="7" sheetId="5" r:id="rId6"/>
+    <sheet name="7 Less NPTS" sheetId="6" r:id="rId7"/>
+    <sheet name="3" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'42'!$A$1:$D$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'7'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'7'!$A$1:$G$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
   <si>
     <t>RSN960_NORTHR_LOS270</t>
   </si>
@@ -196,6 +197,319 @@
   </si>
   <si>
     <t>NPTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN725_SUPER.B_B-POE360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN725_SUPER.B_B-POE270.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN725_SUPER.B_B-POE360.AT2 </t>
+  </si>
+  <si>
+    <t>RSN725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superstition Hills-02</t>
+  </si>
+  <si>
+    <t>RSN900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN900_LANDERS_YER270.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN900_LANDERS_YER360.AT2 </t>
+  </si>
+  <si>
+    <t>RSN953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northridge-01</t>
+  </si>
+  <si>
+    <t>Landers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN953_NORTHR_MUL009.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN953_NORTHR_MUL279.AT2 </t>
+  </si>
+  <si>
+    <t>RSN960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN1116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN1148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN1158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN1633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSN1787</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kobe_ Japan</t>
+  </si>
+  <si>
+    <t>Kocaeli_ Turkey</t>
+  </si>
+  <si>
+    <t>Duzce_ Turkey</t>
+  </si>
+  <si>
+    <t>Manjil_ Iran</t>
+  </si>
+  <si>
+    <t>Hector Mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN960_NORTHR_LOS000.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1111_KOBE_NIS000.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1116_KOBE_SHI000.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1148_KOCAELI_ARE000.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1158_KOCAELI_DZC180.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1602_DUZCE_BOL000.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1633_MANJIL_ABBAR--L.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1787_HECTOR_HEC000.AT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN960_NORTHR_LOS270.AT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1111_KOBE_NIS090.AT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1116_KOBE_SHI090.AT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1148_KOCAELI_ARE090.AT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1158_KOCAELI_DZC270.AT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1602_DUZCE_BOL090.AT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1633_MANJIL_ABBAR--T.AT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RSN1787_HECTOR_HEC090.AT2 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>紀錄編號</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地震年分</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檔名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1 PGA(g)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檔名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-2 PGA(g)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1 PGV(cm/s)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-2 PGV(cm/s)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +520,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +542,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,12 +568,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -251,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +606,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1815,6 +2165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2430,10 +2781,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2821,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>0.28599999999999998</v>
@@ -2839,6 +3191,385 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表4"/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1987</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E2" s="6">
+        <v>41.148000000000003</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G2" s="6">
+        <v>29.001000000000001</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1992</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.245</v>
+      </c>
+      <c r="E3" s="6">
+        <v>51.098999999999997</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.152</v>
+      </c>
+      <c r="G3" s="6">
+        <v>29.074999999999999</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1994</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.443</v>
+      </c>
+      <c r="E4" s="6">
+        <v>59.265000000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>66.683000000000007</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1994</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44.360999999999997</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G5" s="6">
+        <v>41.106999999999999</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1995</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="E6" s="6">
+        <v>46.801000000000002</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G6" s="6">
+        <v>38.243000000000002</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1995</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>31.311</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>21.802</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="E8" s="6">
+        <v>13.946</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>40.045999999999999</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.312</v>
+      </c>
+      <c r="E9" s="6">
+        <v>58.837000000000003</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <v>55.633000000000003</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>55.905999999999999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G10" s="6">
+        <v>65.849000000000004</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1990</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>42.436</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.497</v>
+      </c>
+      <c r="G11" s="6">
+        <v>50.564999999999998</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>26.001000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>44.753999999999998</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3141,8 +3872,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6"/>
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,8 +4215,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3731,8 +4464,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表8"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
